--- a/data/trans_orig/P0901-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P0901-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>103571</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86153</v>
+        <v>86171</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>122732</v>
+        <v>123840</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.177303985804801</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1474865960131433</v>
+        <v>0.147517430947097</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2101070850578279</v>
+        <v>0.2120033637064446</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>206</v>
@@ -765,19 +765,19 @@
         <v>216168</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>190786</v>
+        <v>190604</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>243257</v>
+        <v>242902</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2343705946181376</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2068516556817408</v>
+        <v>0.2066537030089844</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2637413634009583</v>
+        <v>0.2633557743214404</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>309</v>
@@ -786,19 +786,19 @@
         <v>319738</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>288575</v>
+        <v>287479</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>353933</v>
+        <v>353295</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.212242793398297</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1915563592097653</v>
+        <v>0.190829283166677</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2349413786236674</v>
+        <v>0.2345181092491665</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>480570</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>461409</v>
+        <v>460301</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>497988</v>
+        <v>497970</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.822696014195199</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7898929149421723</v>
+        <v>0.787996636293556</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8525134039868567</v>
+        <v>0.8524825690529032</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>679</v>
@@ -836,19 +836,19 @@
         <v>706165</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>679076</v>
+        <v>679431</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>731547</v>
+        <v>731729</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7656294053818624</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7362586365990418</v>
+        <v>0.7366442256785596</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7931483443182593</v>
+        <v>0.7933462969910156</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1150</v>
@@ -857,19 +857,19 @@
         <v>1186736</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1152541</v>
+        <v>1153179</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1217899</v>
+        <v>1218995</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.787757206601703</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7650586213763328</v>
+        <v>0.7654818907508333</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8084436407902347</v>
+        <v>0.8091707168333229</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>89933</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75274</v>
+        <v>73733</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>110676</v>
+        <v>110606</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08343424540675375</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06983417945318625</v>
+        <v>0.06840487631361354</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1026780230628491</v>
+        <v>0.1026126425783265</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>149</v>
@@ -982,19 +982,19 @@
         <v>154864</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>134377</v>
+        <v>132638</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>179966</v>
+        <v>178798</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1464377919349715</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1270663094641209</v>
+        <v>0.1254219460095124</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1701740939838113</v>
+        <v>0.1690699403444867</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>242</v>
@@ -1003,19 +1003,19 @@
         <v>244797</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>216922</v>
+        <v>219020</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>275451</v>
+        <v>274549</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1146357276698479</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1015824090399337</v>
+        <v>0.1025647667181549</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1289906644259901</v>
+        <v>0.1285684380223529</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>987961</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>967218</v>
+        <v>967288</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1002620</v>
+        <v>1004161</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9165657545932463</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8973219769371509</v>
+        <v>0.8973873574216735</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9301658205468136</v>
+        <v>0.9315951236863862</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>879</v>
@@ -1053,19 +1053,19 @@
         <v>902674</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>877572</v>
+        <v>878740</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>923161</v>
+        <v>924900</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8535622080650285</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8298259060161884</v>
+        <v>0.8309300596555133</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8729336905358791</v>
+        <v>0.8745780539904877</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1841</v>
@@ -1074,19 +1074,19 @@
         <v>1890635</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1859981</v>
+        <v>1860883</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1918510</v>
+        <v>1916412</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.885364272330152</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8710093355740099</v>
+        <v>0.871431561977647</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8984175909600663</v>
+        <v>0.897435233281845</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>66430</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51573</v>
+        <v>50305</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82633</v>
+        <v>84223</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05922824040204429</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04598165054085468</v>
+        <v>0.0448514417207238</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07367459237015521</v>
+        <v>0.07509265951826366</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>125</v>
@@ -1199,19 +1199,19 @@
         <v>128621</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>108712</v>
+        <v>108290</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>151138</v>
+        <v>151169</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1294053493250705</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1093745852077041</v>
+        <v>0.1089505581036878</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1520598220772175</v>
+        <v>0.1520908246025847</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>193</v>
@@ -1220,19 +1220,19 @@
         <v>195051</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>170601</v>
+        <v>169556</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>221695</v>
+        <v>222303</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09219949581435719</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0806421166814785</v>
+        <v>0.08014820525876198</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1047938497367981</v>
+        <v>0.1050814216581437</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1055164</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1038961</v>
+        <v>1037371</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1070021</v>
+        <v>1071289</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9407717595979557</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9263254076298448</v>
+        <v>0.9249073404817363</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9540183494591453</v>
+        <v>0.9551485582792761</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>857</v>
@@ -1270,19 +1270,19 @@
         <v>865319</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>842802</v>
+        <v>842771</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>885228</v>
+        <v>885650</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8705946506749296</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8479401779227825</v>
+        <v>0.8479091753974154</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8906254147922956</v>
+        <v>0.8910494418963122</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1892</v>
@@ -1291,19 +1291,19 @@
         <v>1920483</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1893839</v>
+        <v>1893231</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1944933</v>
+        <v>1945978</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9078005041856428</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8952061502632019</v>
+        <v>0.8949185783418563</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9193578833185214</v>
+        <v>0.919851794741238</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>25316</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16503</v>
+        <v>15942</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37412</v>
+        <v>35644</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05661077969965182</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03690249681130865</v>
+        <v>0.03564808228231128</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08365866906887931</v>
+        <v>0.07970404407901528</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -1416,19 +1416,19 @@
         <v>35776</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24813</v>
+        <v>25436</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48608</v>
+        <v>49128</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1048673727002395</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07273282816808534</v>
+        <v>0.07455772311373648</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1424789928751496</v>
+        <v>0.1440026737179902</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -1437,19 +1437,19 @@
         <v>61093</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46959</v>
+        <v>47251</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76372</v>
+        <v>77866</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07749359454469291</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05956586069578055</v>
+        <v>0.0599357298874941</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0968749728524563</v>
+        <v>0.09877010495429173</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>421884</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>409788</v>
+        <v>411556</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>430697</v>
+        <v>431258</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9433892203003482</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9163413309311207</v>
+        <v>0.920295955920985</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9630975031886914</v>
+        <v>0.9643519177176888</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>305</v>
@@ -1487,19 +1487,19 @@
         <v>305382</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>292550</v>
+        <v>292030</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>316345</v>
+        <v>315722</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8951326272997605</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8575210071248504</v>
+        <v>0.8559973262820095</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9272671718319144</v>
+        <v>0.9254422768862635</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>716</v>
@@ -1508,19 +1508,19 @@
         <v>727265</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>711986</v>
+        <v>710492</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>741399</v>
+        <v>741107</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.922506405455307</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9031250271475438</v>
+        <v>0.9012298950457083</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9404341393042195</v>
+        <v>0.9400642701125058</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>285250</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>252959</v>
+        <v>253610</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>316747</v>
+        <v>314690</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08829010058933018</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0782952555510114</v>
+        <v>0.07849682295752559</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0980388982734389</v>
+        <v>0.09740231256246754</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>514</v>
@@ -1633,19 +1633,19 @@
         <v>535429</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>493536</v>
+        <v>493599</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>582174</v>
+        <v>579874</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.161518485972962</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1488811543601801</v>
+        <v>0.1488999202584944</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1756196165774945</v>
+        <v>0.1749258952393358</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>803</v>
@@ -1654,19 +1654,19 @@
         <v>820679</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>771285</v>
+        <v>773683</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>881234</v>
+        <v>879684</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1253749311992669</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1178290404517113</v>
+        <v>0.1181953930788966</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1346259028261751</v>
+        <v>0.1343890717260644</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2945579</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2914082</v>
+        <v>2916139</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2977870</v>
+        <v>2977219</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9117098994106698</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9019611017265614</v>
+        <v>0.9025976874375325</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9217047444489888</v>
+        <v>0.9215031770424749</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2720</v>
@@ -1704,19 +1704,19 @@
         <v>2779540</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2732795</v>
+        <v>2735095</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2821433</v>
+        <v>2821370</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8384815140270381</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8243803834225056</v>
+        <v>0.8250741047606647</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.85111884563982</v>
+        <v>0.8511000797415057</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5599</v>
@@ -1725,19 +1725,19 @@
         <v>5725119</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5664564</v>
+        <v>5666114</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5774513</v>
+        <v>5772115</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8746250688007331</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8653740971738249</v>
+        <v>0.8656109282739356</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8821709595482887</v>
+        <v>0.8818046069211034</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>137585</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>116988</v>
+        <v>115462</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>162990</v>
+        <v>161299</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1317947059083146</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1120643770182258</v>
+        <v>0.1106025010264265</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1561301837599772</v>
+        <v>0.1545108351617707</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>258</v>
@@ -2090,19 +2090,19 @@
         <v>276166</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>245832</v>
+        <v>249633</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>304960</v>
+        <v>309547</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2465926095118222</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2195070614009364</v>
+        <v>0.2229006846575146</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2723035473447509</v>
+        <v>0.2763993251358735</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>384</v>
@@ -2111,19 +2111,19 @@
         <v>413751</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>377458</v>
+        <v>378468</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>449341</v>
+        <v>455220</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1912094740138257</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1744369395628196</v>
+        <v>0.174903752691586</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2076569564569506</v>
+        <v>0.2103737703003854</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>906350</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>880945</v>
+        <v>882636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>926947</v>
+        <v>928473</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8682052940916853</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8438698162400228</v>
+        <v>0.8454891648382294</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8879356229817744</v>
+        <v>0.8893974989735736</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>773</v>
@@ -2161,19 +2161,19 @@
         <v>843762</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>814968</v>
+        <v>810381</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>874096</v>
+        <v>870295</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7534073904881777</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.727696452655249</v>
+        <v>0.7236006748641265</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7804929385990635</v>
+        <v>0.7770993153424859</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1625</v>
@@ -2182,19 +2182,19 @@
         <v>1750112</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1714522</v>
+        <v>1708643</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1786405</v>
+        <v>1785395</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8087905259861743</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7923430435430494</v>
+        <v>0.7896262296996147</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8255630604371804</v>
+        <v>0.825096247308414</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>116695</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>97440</v>
+        <v>97280</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>140445</v>
+        <v>139466</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1194330913297374</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09972657998356571</v>
+        <v>0.09956284664424632</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1437403140050066</v>
+        <v>0.1427387841364718</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>218</v>
@@ -2307,19 +2307,19 @@
         <v>234860</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>207790</v>
+        <v>209157</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>266650</v>
+        <v>263564</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2146290930460989</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1898901016537691</v>
+        <v>0.1911396941701759</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2436801617967699</v>
+        <v>0.2408596613643939</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>323</v>
@@ -2328,19 +2328,19 @@
         <v>351555</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>318644</v>
+        <v>320969</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>389954</v>
+        <v>386872</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1697240317488912</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1538349970733353</v>
+        <v>0.1549573110059059</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1882623922119615</v>
+        <v>0.1867740040821309</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>860378</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>836628</v>
+        <v>837607</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>879633</v>
+        <v>879793</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8805669086702625</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8562596859949935</v>
+        <v>0.8572612158635282</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9002734200164343</v>
+        <v>0.9004371533557537</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>802</v>
@@ -2378,19 +2378,19 @@
         <v>859402</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>827612</v>
+        <v>830698</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>886472</v>
+        <v>885105</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7853709069539011</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7563198382032301</v>
+        <v>0.7591403386356059</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.810109898346231</v>
+        <v>0.808860305829824</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1621</v>
@@ -2399,19 +2399,19 @@
         <v>1719780</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1681381</v>
+        <v>1684463</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1752691</v>
+        <v>1750366</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8302759682511087</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8117376077880391</v>
+        <v>0.8132259959178691</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8461650029266649</v>
+        <v>0.8450426889940941</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>104112</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>85788</v>
+        <v>86377</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>124127</v>
+        <v>126415</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1176256513269327</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09692261361122026</v>
+        <v>0.09758832716830675</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1402383993643528</v>
+        <v>0.1428228090115383</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>142</v>
@@ -2524,19 +2524,19 @@
         <v>154882</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>132668</v>
+        <v>130963</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>179052</v>
+        <v>178885</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1768472720316734</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1514830462250044</v>
+        <v>0.1495362110413933</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2044443929489026</v>
+        <v>0.2042536728061073</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>239</v>
@@ -2545,19 +2545,19 @@
         <v>258994</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>229969</v>
+        <v>230472</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>291402</v>
+        <v>290269</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1470797514226289</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1305966646629216</v>
+        <v>0.1308820412365332</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1654836498380714</v>
+        <v>0.1648405222189536</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>781003</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>760988</v>
+        <v>758700</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>799327</v>
+        <v>798738</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8823743486730673</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8597616006356469</v>
+        <v>0.8571771909884609</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9030773863887795</v>
+        <v>0.902411672831693</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>679</v>
@@ -2595,19 +2595,19 @@
         <v>720914</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>696744</v>
+        <v>696911</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>743128</v>
+        <v>744833</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8231527279683266</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7955556070510971</v>
+        <v>0.7957463271938927</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8485169537749951</v>
+        <v>0.8504637889586066</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1412</v>
@@ -2616,19 +2616,19 @@
         <v>1501917</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1469509</v>
+        <v>1470642</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1530942</v>
+        <v>1530439</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.852920248577371</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8345163501619287</v>
+        <v>0.8351594777810464</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8694033353370785</v>
+        <v>0.8691179587634668</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>49629</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37093</v>
+        <v>36155</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66595</v>
+        <v>65654</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09866208791495666</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07374108715454385</v>
+        <v>0.07187629350645784</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1323901435045312</v>
+        <v>0.1305190839503093</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>62</v>
@@ -2741,19 +2741,19 @@
         <v>69078</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54375</v>
+        <v>54496</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>87345</v>
+        <v>86130</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1525799846100148</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1201028790864264</v>
+        <v>0.1203708479003531</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1929265209979128</v>
+        <v>0.1902424250103465</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>106</v>
@@ -2762,19 +2762,19 @@
         <v>118708</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>99370</v>
+        <v>98737</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>139817</v>
+        <v>140907</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.124202595204426</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1039698643934811</v>
+        <v>0.1033071241856019</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1462888481404972</v>
+        <v>0.1474291656463725</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>453394</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>436428</v>
+        <v>437369</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>465930</v>
+        <v>466868</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9013379120850433</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8676098564954686</v>
+        <v>0.8694809160496909</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9262589128454561</v>
+        <v>0.9281237064935421</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>350</v>
@@ -2812,19 +2812,19 @@
         <v>383658</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>365391</v>
+        <v>366606</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>398361</v>
+        <v>398240</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8474200153899851</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8070734790020874</v>
+        <v>0.8097575749896535</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8798971209135737</v>
+        <v>0.879629152099647</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>767</v>
@@ -2833,19 +2833,19 @@
         <v>837050</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>815941</v>
+        <v>814851</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>856388</v>
+        <v>857021</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.875797404795574</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8537111518595027</v>
+        <v>0.8525708343536276</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8960301356065191</v>
+        <v>0.896692875814398</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>408021</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>370726</v>
+        <v>368240</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>449671</v>
+        <v>448122</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1196843691015173</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1087444821391791</v>
+        <v>0.1080152653457739</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1319013382439121</v>
+        <v>0.1314471024573543</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>680</v>
@@ -2958,19 +2958,19 @@
         <v>734987</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>688262</v>
+        <v>691712</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>785137</v>
+        <v>795212</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2074639388490355</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1942747754895545</v>
+        <v>0.1952487445128282</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2216197599774923</v>
+        <v>0.2244636508269125</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1052</v>
@@ -2979,19 +2979,19 @@
         <v>1143008</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1078661</v>
+        <v>1080487</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1208811</v>
+        <v>1210122</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1644174735696531</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1551613901558374</v>
+        <v>0.1554239376110457</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1738828625878225</v>
+        <v>0.1740714426549174</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3001124</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2959474</v>
+        <v>2961023</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3038419</v>
+        <v>3040905</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8803156308984826</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8680986617560875</v>
+        <v>0.8685528975426458</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8912555178608206</v>
+        <v>0.891984734654226</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2604</v>
@@ -3029,19 +3029,19 @@
         <v>2807735</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2757585</v>
+        <v>2747510</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2854460</v>
+        <v>2851010</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7925360611509645</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7783802400225078</v>
+        <v>0.7755363491730876</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8057252245104457</v>
+        <v>0.8047512554871719</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5425</v>
@@ -3050,19 +3050,19 @@
         <v>5808859</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5743056</v>
+        <v>5741745</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5873206</v>
+        <v>5871380</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8355825264303468</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8261171374121774</v>
+        <v>0.8259285573450826</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8448386098441625</v>
+        <v>0.844576062388954</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>143122</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>122702</v>
+        <v>120681</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>165816</v>
+        <v>165922</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1268813776802996</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1087786066992155</v>
+        <v>0.1069872623719852</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1470002535196036</v>
+        <v>0.1470944383021332</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>256</v>
@@ -3415,19 +3415,19 @@
         <v>292713</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>260200</v>
+        <v>260691</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>324704</v>
+        <v>323799</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.232392942321538</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2065796340028065</v>
+        <v>0.2069696877139919</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.257791131995623</v>
+        <v>0.2570727024234619</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>395</v>
@@ -3436,19 +3436,19 @@
         <v>435835</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>400935</v>
+        <v>401707</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>477837</v>
+        <v>477938</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1825442045480723</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.16792681358972</v>
+        <v>0.1682499442638966</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2001364247165884</v>
+        <v>0.200178613616551</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>984875</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>962181</v>
+        <v>962075</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1005295</v>
+        <v>1007316</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8731186223197004</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8529997464803964</v>
+        <v>0.8529055616978669</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8912213933007845</v>
+        <v>0.8930127376280148</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>932</v>
@@ -3486,19 +3486,19 @@
         <v>966848</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>934857</v>
+        <v>935762</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>999361</v>
+        <v>998870</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7676070576784619</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7422088680043772</v>
+        <v>0.7429272975765381</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7934203659971937</v>
+        <v>0.7930303122860081</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1859</v>
@@ -3507,19 +3507,19 @@
         <v>1951723</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1909721</v>
+        <v>1909620</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1986623</v>
+        <v>1985851</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8174557954519277</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7998635752834116</v>
+        <v>0.799821386383449</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8320731864102799</v>
+        <v>0.8317500557361034</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>88974</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>72070</v>
+        <v>71799</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>109876</v>
+        <v>108223</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09789966292891812</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07930057253668732</v>
+        <v>0.07900199167428612</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1208985765384006</v>
+        <v>0.1190805903596351</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>160</v>
@@ -3632,19 +3632,19 @@
         <v>182091</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>155537</v>
+        <v>158710</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>208830</v>
+        <v>210810</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1809196603098504</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1545364231044585</v>
+        <v>0.1576891927611321</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2074865120297291</v>
+        <v>0.2094536681376049</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>249</v>
@@ -3653,19 +3653,19 @@
         <v>271065</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>241183</v>
+        <v>238736</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>305602</v>
+        <v>302933</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1415260260031968</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1259241455336833</v>
+        <v>0.1246466193152245</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1595585188221688</v>
+        <v>0.1581646374818847</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>819851</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>798949</v>
+        <v>800602</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>836755</v>
+        <v>837026</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9021003370710818</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8791014234615994</v>
+        <v>0.8809194096403645</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9206994274633127</v>
+        <v>0.9209980083257138</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>791</v>
@@ -3703,19 +3703,19 @@
         <v>824384</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>797645</v>
+        <v>795665</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>850938</v>
+        <v>847765</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8190803396901496</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7925134879702711</v>
+        <v>0.7905463318623952</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8454635768955416</v>
+        <v>0.842310807238868</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1583</v>
@@ -3724,19 +3724,19 @@
         <v>1644235</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1609698</v>
+        <v>1612367</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1674117</v>
+        <v>1676564</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8584739739968033</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8404414811778312</v>
+        <v>0.8418353625181153</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8740758544663167</v>
+        <v>0.8753533806847754</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>62644</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47905</v>
+        <v>49332</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80474</v>
+        <v>78745</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07604650862632714</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05815473341306655</v>
+        <v>0.05988603043692478</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09769095252773752</v>
+        <v>0.0955926909447128</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>117</v>
@@ -3849,19 +3849,19 @@
         <v>138367</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>117896</v>
+        <v>115393</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>161268</v>
+        <v>162418</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1794505209590618</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1529009722104298</v>
+        <v>0.1496553790102213</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2091509084909324</v>
+        <v>0.2106428781780984</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>179</v>
@@ -3870,19 +3870,19 @@
         <v>201011</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>175401</v>
+        <v>175244</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>229835</v>
+        <v>234572</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1260400273067788</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1099819969336658</v>
+        <v>0.1098835411312823</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.144113745164648</v>
+        <v>0.1470840231804023</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>761115</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>743285</v>
+        <v>745014</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>775854</v>
+        <v>774427</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9239534913736729</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9023090474722625</v>
+        <v>0.9044073090552872</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9418452665869332</v>
+        <v>0.9401139695630757</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>611</v>
@@ -3920,19 +3920,19 @@
         <v>632692</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>609791</v>
+        <v>608641</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>653163</v>
+        <v>655666</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8205494790409382</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7908490915090676</v>
+        <v>0.7893571218219015</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8470990277895701</v>
+        <v>0.8503446209897787</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1336</v>
@@ -3941,19 +3941,19 @@
         <v>1393807</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1364983</v>
+        <v>1360246</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1419417</v>
+        <v>1419574</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8739599726932212</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8558862548353526</v>
+        <v>0.8529159768195976</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8900180030663344</v>
+        <v>0.8901164588687176</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>54185</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40390</v>
+        <v>41211</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71017</v>
+        <v>70419</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1069363541247243</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07971109998076893</v>
+        <v>0.08133115119183285</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1401559022091789</v>
+        <v>0.1389763686438563</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -4066,19 +4066,19 @@
         <v>71190</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55944</v>
+        <v>56545</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>90261</v>
+        <v>91297</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1453758365583078</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1142423267251221</v>
+        <v>0.1154691001251157</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1843192277991637</v>
+        <v>0.1864347321335866</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>108</v>
@@ -4087,19 +4087,19 @@
         <v>125375</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>103779</v>
+        <v>103795</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>149813</v>
+        <v>147865</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1258281141264888</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1041537931967461</v>
+        <v>0.1041702143101603</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1503548596904937</v>
+        <v>0.1483992728512886</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>452516</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>435684</v>
+        <v>436282</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>466311</v>
+        <v>465490</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8930636458752758</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8598440977908212</v>
+        <v>0.8610236313561435</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.920288900019232</v>
+        <v>0.9186688488081661</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>396</v>
@@ -4137,19 +4137,19 @@
         <v>418508</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>399437</v>
+        <v>398401</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>433754</v>
+        <v>433153</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8546241634416922</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8156807722008363</v>
+        <v>0.8135652678664133</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8857576732748779</v>
+        <v>0.8845308998748842</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>818</v>
@@ -4158,19 +4158,19 @@
         <v>871023</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>846585</v>
+        <v>848533</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>892619</v>
+        <v>892603</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8741718858735111</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8496451403095064</v>
+        <v>0.8516007271487116</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8958462068032539</v>
+        <v>0.8958297856898397</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>348924</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>312481</v>
+        <v>314345</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>382975</v>
+        <v>388023</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.103621919184655</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09279918354384417</v>
+        <v>0.09335268758337766</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1137341703766753</v>
+        <v>0.1152333822691988</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>592</v>
@@ -4283,19 +4283,19 @@
         <v>684361</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>636579</v>
+        <v>638538</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>740786</v>
+        <v>735843</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1940463784443254</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1804980037242627</v>
+        <v>0.1810534055919967</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2100453777811891</v>
+        <v>0.2086436115564922</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>931</v>
@@ -4304,19 +4304,19 @@
         <v>1033286</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>969609</v>
+        <v>973178</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1100729</v>
+        <v>1095178</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.149880236636124</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1406437970497426</v>
+        <v>0.1411615081558483</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1596630015640299</v>
+        <v>0.1588578779162708</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3018358</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2984307</v>
+        <v>2979259</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3054801</v>
+        <v>3052937</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.896378080815345</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8862658296233246</v>
+        <v>0.884766617730801</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9072008164561557</v>
+        <v>0.9066473124166212</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2730</v>
@@ -4354,19 +4354,19 @@
         <v>2842431</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2786006</v>
+        <v>2790949</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2890213</v>
+        <v>2888254</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8059536215556746</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7899546222188109</v>
+        <v>0.7913563884435079</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8195019962757374</v>
+        <v>0.8189465944080035</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5596</v>
@@ -4375,19 +4375,19 @@
         <v>5860789</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5793346</v>
+        <v>5798897</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5924466</v>
+        <v>5920897</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.850119763363876</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8403369984359697</v>
+        <v>0.8411421220837293</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8593562029502574</v>
+        <v>0.8588384918441517</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>128778</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>110333</v>
+        <v>107915</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>150081</v>
+        <v>150550</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2587808934245731</v>
+        <v>0.2587808934245732</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2217148019904365</v>
+        <v>0.216855976433719</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3015890108965052</v>
+        <v>0.302531975732737</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>329</v>
@@ -4740,19 +4740,19 @@
         <v>206551</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>184169</v>
+        <v>187623</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>226770</v>
+        <v>230198</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3315765726494661</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2956471541118449</v>
+        <v>0.3011915464282443</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3640337817869909</v>
+        <v>0.3695366172407947</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>466</v>
@@ -4761,19 +4761,19 @@
         <v>335330</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>307128</v>
+        <v>305798</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>364994</v>
+        <v>367850</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2992486974059406</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2740813689364385</v>
+        <v>0.2728949571521368</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3257215286712659</v>
+        <v>0.3282696131328542</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>368857</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>347554</v>
+        <v>347085</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>387302</v>
+        <v>389720</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7412191065754269</v>
+        <v>0.741219106575427</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.698410989103495</v>
+        <v>0.6974680242672631</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7782851980095636</v>
+        <v>0.783144023566281</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>531</v>
@@ -4811,19 +4811,19 @@
         <v>416385</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>396166</v>
+        <v>392738</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>438767</v>
+        <v>435313</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6684234273505339</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6359662182130092</v>
+        <v>0.6304633827592053</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7043528458881553</v>
+        <v>0.6988084535717555</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>848</v>
@@ -4832,19 +4832,19 @@
         <v>785242</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>755578</v>
+        <v>752722</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>813444</v>
+        <v>814774</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7007513025940595</v>
+        <v>0.7007513025940594</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6742784713287342</v>
+        <v>0.6717303868671458</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7259186310635616</v>
+        <v>0.7271050428478633</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>142123</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>122225</v>
+        <v>120940</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>167457</v>
+        <v>163798</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1480233559489879</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1272990244029824</v>
+        <v>0.1259612506791231</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1744090217945968</v>
+        <v>0.1705990683117737</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>449</v>
@@ -4957,19 +4957,19 @@
         <v>267369</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>244485</v>
+        <v>243770</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>290864</v>
+        <v>290439</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2396107670506488</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2191022126820473</v>
+        <v>0.2184617055776503</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2606663501171758</v>
+        <v>0.2602849720669933</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>612</v>
@@ -4978,19 +4978,19 @@
         <v>409492</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>377478</v>
+        <v>376365</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>440227</v>
+        <v>443071</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1972518912815989</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1818307163390873</v>
+        <v>0.1812945240856183</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2120566869628776</v>
+        <v>0.2134267197046742</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>818014</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>792680</v>
+        <v>796339</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>837912</v>
+        <v>839197</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.851976644051012</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8255909782054038</v>
+        <v>0.8294009316882266</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8727009755970176</v>
+        <v>0.8740387493208772</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1158</v>
@@ -5028,19 +5028,19 @@
         <v>848480</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>824985</v>
+        <v>825410</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>871364</v>
+        <v>872079</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.760389232949351</v>
+        <v>0.7603892329493512</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7393336498828242</v>
+        <v>0.7397150279330068</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7808977873179526</v>
+        <v>0.7815382944223497</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1905</v>
@@ -5049,19 +5049,19 @@
         <v>1666494</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1635759</v>
+        <v>1632915</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1698508</v>
+        <v>1699621</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8027481087184012</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7879433130371223</v>
+        <v>0.7865732802953258</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8181692836609127</v>
+        <v>0.818705475914382</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>96712</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80470</v>
+        <v>77887</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119020</v>
+        <v>116318</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09241620157926116</v>
+        <v>0.09241620157926117</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07689567526581109</v>
+        <v>0.0744277443982823</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1137333020384211</v>
+        <v>0.1111518948837196</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>267</v>
@@ -5174,19 +5174,19 @@
         <v>162530</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>144764</v>
+        <v>144957</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>181740</v>
+        <v>182653</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1551392853042308</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1381805206471489</v>
+        <v>0.1383646961662653</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1734751375811906</v>
+        <v>0.1743468322011269</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>377</v>
@@ -5195,19 +5195,19 @@
         <v>259242</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>233527</v>
+        <v>231147</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>289782</v>
+        <v>284613</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1237951508970974</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1115155112492908</v>
+        <v>0.1103792183614525</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1383787959358915</v>
+        <v>0.1359105072070357</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>949767</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>927459</v>
+        <v>930161</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>966009</v>
+        <v>968592</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9075837984207388</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8862666979615788</v>
+        <v>0.8888481051162808</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9231043247341885</v>
+        <v>0.9255722556017177</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1249</v>
@@ -5245,19 +5245,19 @@
         <v>885112</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>865902</v>
+        <v>864989</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>902878</v>
+        <v>902685</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8448607146957691</v>
+        <v>0.8448607146957694</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8265248624188095</v>
+        <v>0.8256531677988731</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8618194793528512</v>
+        <v>0.8616353038337349</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2168</v>
@@ -5266,19 +5266,19 @@
         <v>1834879</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1804339</v>
+        <v>1809508</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1860594</v>
+        <v>1862974</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8762048491029025</v>
+        <v>0.8762048491029027</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8616212040641069</v>
+        <v>0.8640894927929645</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.888484488750709</v>
+        <v>0.8896207816385476</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>108411</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87812</v>
+        <v>90105</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>130539</v>
+        <v>132843</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1112074493725906</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09007717915636697</v>
+        <v>0.09242992333061437</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.133907039733378</v>
+        <v>0.1362699750375646</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>202</v>
@@ -5391,19 +5391,19 @@
         <v>128317</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>111263</v>
+        <v>111647</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>146573</v>
+        <v>146798</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1413808246493701</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1225910276569254</v>
+        <v>0.1230136780337544</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1614952909936501</v>
+        <v>0.1617437981529971</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>314</v>
@@ -5412,19 +5412,19 @@
         <v>236728</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>211672</v>
+        <v>212791</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>264055</v>
+        <v>268985</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1257551434221594</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1124450782202532</v>
+        <v>0.113039697038199</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1402719042084336</v>
+        <v>0.1428912370131747</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>866439</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>844311</v>
+        <v>842007</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>887038</v>
+        <v>884745</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8887925506274094</v>
+        <v>0.8887925506274093</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8660929602666221</v>
+        <v>0.8637300249624353</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9099228208436331</v>
+        <v>0.9075700766693856</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1117</v>
@@ -5462,19 +5462,19 @@
         <v>779280</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>761024</v>
+        <v>760799</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>796334</v>
+        <v>795950</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.85861917535063</v>
+        <v>0.8586191753506298</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8385047090063499</v>
+        <v>0.8382562018470029</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8774089723430747</v>
+        <v>0.8769863219662455</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1950</v>
@@ -5483,19 +5483,19 @@
         <v>1645720</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1618393</v>
+        <v>1613463</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1670776</v>
+        <v>1669657</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8742448565778407</v>
+        <v>0.8742448565778406</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8597280957915663</v>
+        <v>0.8571087629868256</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8875549217797468</v>
+        <v>0.8869603029618012</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>476023</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>432447</v>
+        <v>439158</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>515532</v>
+        <v>521699</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1368236620095021</v>
+        <v>0.136823662009502</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1242984747878103</v>
+        <v>0.1262273012395736</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1481796142267658</v>
+        <v>0.1499522975965826</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1247</v>
@@ -5608,19 +5608,19 @@
         <v>764768</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>722597</v>
+        <v>726954</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>810289</v>
+        <v>807418</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2070283570127644</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.195612520428751</v>
+        <v>0.1967917650114206</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2193512647920055</v>
+        <v>0.2185742371815656</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1769</v>
@@ -5629,19 +5629,19 @@
         <v>1240791</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1178260</v>
+        <v>1183043</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1296034</v>
+        <v>1301415</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1729777542296657</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1642603564246217</v>
+        <v>0.1649271198565682</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1806790730708872</v>
+        <v>0.1814292855814902</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3003079</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2963570</v>
+        <v>2957403</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3046655</v>
+        <v>3039944</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.863176337990498</v>
+        <v>0.8631763379904979</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8518203857732343</v>
+        <v>0.8500477024034173</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8757015252121897</v>
+        <v>0.8737726987604264</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4055</v>
@@ -5679,19 +5679,19 @@
         <v>2929256</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2883735</v>
+        <v>2886606</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2971427</v>
+        <v>2967070</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7929716429872354</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7806487352079946</v>
+        <v>0.781425762818434</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8043874795712491</v>
+        <v>0.8032082349885794</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6871</v>
@@ -5700,19 +5700,19 @@
         <v>5932335</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5877092</v>
+        <v>5871711</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5994866</v>
+        <v>5990083</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8270222457703342</v>
+        <v>0.8270222457703345</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8193209269291126</v>
+        <v>0.8185707144185098</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8357396435753783</v>
+        <v>0.835072880143432</v>
       </c>
     </row>
     <row r="18">
